--- a/DSSClassroomScheduling/Backend/uploads/classroom_scheduling - Main.xlsx
+++ b/DSSClassroomScheduling/Backend/uploads/classroom_scheduling - Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\FinalProject_DSS-for-Classroom-Scheduling\DSSClassroomScheduling\Backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E65E4A-52CA-4F00-9901-0BB61E1CEF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640F9D0-A6CE-4613-9806-57A97612F86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classrooms" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>classroom_id</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>board_id</t>
-  </si>
-  <si>
-    <t>board_size</t>
   </si>
   <si>
     <t>building_name</t>
@@ -541,7 +538,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -602,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -621,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -640,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -648,8 +645,12 @@
       <c r="D5" s="2">
         <v>30</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
@@ -659,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -667,8 +668,12 @@
       <c r="D6" s="2">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
@@ -678,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -686,8 +691,12 @@
       <c r="D7" s="2">
         <v>70</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
@@ -697,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -705,8 +714,12 @@
       <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
@@ -716,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -735,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -754,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -773,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -792,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -811,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -820,10 +833,10 @@
         <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -834,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -843,9 +856,11 @@
         <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="2">
         <v>4</v>
       </c>
@@ -855,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -864,9 +879,11 @@
         <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="2">
         <v>4</v>
       </c>
@@ -876,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -885,10 +902,10 @@
         <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2">
         <v>4</v>
@@ -899,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -908,10 +925,10 @@
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2">
         <v>4</v>
@@ -922,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -931,10 +948,10 @@
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2">
         <v>4</v>
@@ -945,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -964,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -973,10 +990,10 @@
         <v>204</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2">
         <v>4</v>
@@ -987,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -996,10 +1013,10 @@
         <v>147</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -1010,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1029,7 +1046,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1038,7 +1055,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>41</v>
@@ -1052,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -1060,8 +1077,12 @@
       <c r="D25" s="2">
         <v>40</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="2">
         <v>5</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -1079,8 +1100,12 @@
       <c r="D26" s="2">
         <v>90</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
@@ -1092,25 +1117,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1138,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1173,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1184,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55539C11-B0A8-4D72-8FBE-E4A94DDC01C8}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1210,16 +1337,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4B6931-AC7B-4499-8669-BC2EB45315ED}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1239,12 +1366,9 @@
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
